--- a/Second Iteration Data/data_gathered_part_first_segmentation_9.xlsx
+++ b/Second Iteration Data/data_gathered_part_first_segmentation_9.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Passion\Machine Learning\Projects\Semantic_Web_Parser\Second Iteration Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDC33B1-6B59-4677-95EF-DDBB3642D577}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="504" yWindow="1416" windowWidth="9600" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="23">
   <si>
     <t>tag_h</t>
   </si>
@@ -81,28 +86,40 @@
   </si>
   <si>
     <t>google_osd_static_frame_5815028123437</t>
+  </si>
+  <si>
+    <t>label</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -117,26 +134,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -424,20 +459,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:P11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,30 +514,33 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="Q1" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>19</v>
       </c>
-      <c r="G2" t="n">
-        <v>0.003846153846153846</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="G2">
+        <v>3.8461538461538459E-3</v>
+      </c>
+      <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
@@ -515,48 +549,51 @@
       <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
         <v>16</v>
       </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>17</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>322</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>1933</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.0009177373602536292</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="G3">
+        <v>9.1773736025362919E-4</v>
+      </c>
+      <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
@@ -565,48 +602,51 @@
       <c r="J3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
         <v>4263.38330078125</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>1266.400024414062</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>1.002586784685656</v>
       </c>
       <c r="P3" t="s">
         <v>18</v>
       </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
@@ -615,48 +655,51 @@
       <c r="J4" t="s">
         <v>15</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
         <v>19</v>
       </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
@@ -665,48 +708,51 @@
       <c r="J5" t="s">
         <v>15</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
         <v>16</v>
       </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>23</v>
       </c>
-      <c r="G6" t="n">
-        <v>0.005076142131979695</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="G6">
+        <v>5.076142131979695E-3</v>
+      </c>
+      <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
@@ -715,48 +761,51 @@
       <c r="J6" t="s">
         <v>15</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
         <v>16</v>
       </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>98</v>
       </c>
-      <c r="G7" t="n">
-        <v>0.0008</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="G7">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
@@ -765,48 +814,51 @@
       <c r="J7" t="s">
         <v>15</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
         <v>16</v>
       </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
@@ -815,48 +867,51 @@
       <c r="J8" t="s">
         <v>15</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
         <v>16</v>
       </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>29</v>
       </c>
-      <c r="G9" t="n">
-        <v>0.007142857142857143</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="G9">
+        <v>7.1428571428571426E-3</v>
+      </c>
+      <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="s">
@@ -865,48 +920,51 @@
       <c r="J9" t="s">
         <v>15</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
         <v>16</v>
       </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
@@ -915,48 +973,51 @@
       <c r="J10" t="s">
         <v>15</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
         <v>20</v>
       </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="s">
         <v>16</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
@@ -965,26 +1026,30 @@
       <c r="J11" t="s">
         <v>15</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
         <v>21</v>
       </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>